--- a/data/Lakes/LakeWaipu_c2d77bb10c.xlsx
+++ b/data/Lakes/LakeWaipu_c2d77bb10c.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -527,7 +527,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -597,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -628,7 +628,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -659,7 +659,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -690,7 +690,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -725,7 +725,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -760,7 +760,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -795,7 +795,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -826,7 +826,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -857,7 +857,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -888,7 +888,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -923,7 +923,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -958,7 +958,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -993,7 +993,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2034,7 +2034,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2299,7 +2299,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2486,7 +2486,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2595,7 +2595,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3203,7 +3203,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3542,7 +3542,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4267,7 +4267,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4368,7 +4368,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4409,7 +4409,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4528,7 +4528,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4674,7 +4674,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4715,7 +4715,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -4834,7 +4834,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -4875,7 +4875,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -4980,7 +4980,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5062,7 +5062,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5327,7 +5327,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5446,7 +5446,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5487,7 +5487,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5524,7 +5524,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5592,7 +5592,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -5674,7 +5674,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -5898,7 +5898,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6058,7 +6058,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6099,7 +6099,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6286,7 +6286,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6364,7 +6364,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6442,7 +6442,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6592,7 +6592,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -6670,7 +6670,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -6816,7 +6816,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7054,7 +7054,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7163,7 +7163,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7204,7 +7204,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7282,7 +7282,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7360,7 +7360,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7428,7 +7428,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7469,7 +7469,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7510,7 +7510,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7588,7 +7588,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -7666,7 +7666,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -7734,7 +7734,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -7775,7 +7775,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -7935,7 +7935,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8040,7 +8040,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8081,7 +8081,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8122,7 +8122,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8241,7 +8241,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8346,7 +8346,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8387,7 +8387,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -8506,7 +8506,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -8547,7 +8547,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -8652,7 +8652,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -8693,7 +8693,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -8734,7 +8734,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -8812,7 +8812,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -8890,7 +8890,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -8958,7 +8958,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -8999,7 +8999,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -9040,7 +9040,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -9118,7 +9118,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9159,7 +9159,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -9196,7 +9196,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -9264,7 +9264,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -9346,7 +9346,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9424,7 +9424,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -9465,7 +9465,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -9502,7 +9502,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -9570,7 +9570,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -9611,7 +9611,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -9652,7 +9652,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -9730,7 +9730,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -9771,7 +9771,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -9808,7 +9808,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">

--- a/data/Lakes/LakeWaipu_c2d77bb10c.xlsx
+++ b/data/Lakes/LakeWaipu_c2d77bb10c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="358">
   <si>
     <t>site name</t>
   </si>
@@ -73,7 +73,7 @@
     <t>&lt;1.500</t>
   </si>
   <si>
-    <t>48</t>
+    <t>48.0</t>
   </si>
   <si>
     <t>0.3150</t>
@@ -91,7 +91,7 @@
     <t>&lt;1.900</t>
   </si>
   <si>
-    <t>12</t>
+    <t>12.0</t>
   </si>
   <si>
     <t>0.2180</t>
@@ -109,7 +109,7 @@
     <t>35.000</t>
   </si>
   <si>
-    <t>100</t>
+    <t>100.0</t>
   </si>
   <si>
     <t>2.970</t>
@@ -124,7 +124,7 @@
     <t>3.800</t>
   </si>
   <si>
-    <t>870</t>
+    <t>870.0</t>
   </si>
   <si>
     <t>0.6810</t>
@@ -142,7 +142,7 @@
     <t>7.000</t>
   </si>
   <si>
-    <t>8</t>
+    <t>8.0</t>
   </si>
   <si>
     <t>0.4890</t>
@@ -175,7 +175,7 @@
     <t>26.000</t>
   </si>
   <si>
-    <t>630</t>
+    <t>630.0</t>
   </si>
   <si>
     <t>0.0030</t>
@@ -190,7 +190,7 @@
     <t>0.2700</t>
   </si>
   <si>
-    <t>74</t>
+    <t>74.0</t>
   </si>
   <si>
     <t>2.750</t>
@@ -238,7 +238,7 @@
     <t>0.6200</t>
   </si>
   <si>
-    <t>570</t>
+    <t>570.0</t>
   </si>
   <si>
     <t>0.9030</t>
@@ -256,7 +256,7 @@
     <t>1.900</t>
   </si>
   <si>
-    <t>25</t>
+    <t>25.0</t>
   </si>
   <si>
     <t>0.4780</t>
@@ -271,7 +271,7 @@
     <t>3.600</t>
   </si>
   <si>
-    <t>21</t>
+    <t>21.0</t>
   </si>
   <si>
     <t>0.2020</t>
@@ -292,7 +292,7 @@
     <t>15.000</t>
   </si>
   <si>
-    <t>80</t>
+    <t>80.0</t>
   </si>
   <si>
     <t>8.930</t>
@@ -310,7 +310,7 @@
     <t>18.000</t>
   </si>
   <si>
-    <t>580</t>
+    <t>580.0</t>
   </si>
   <si>
     <t>1.740</t>
@@ -328,7 +328,7 @@
     <t>6.200</t>
   </si>
   <si>
-    <t>140</t>
+    <t>140.0</t>
   </si>
   <si>
     <t>7.770</t>
@@ -382,7 +382,7 @@
     <t>4.600</t>
   </si>
   <si>
-    <t>300</t>
+    <t>300.0</t>
   </si>
   <si>
     <t>7.680</t>
@@ -406,7 +406,7 @@
     <t>3.900</t>
   </si>
   <si>
-    <t>690</t>
+    <t>690.0</t>
   </si>
   <si>
     <t>8.200</t>
@@ -430,7 +430,7 @@
     <t>71.000</t>
   </si>
   <si>
-    <t>16</t>
+    <t>16.0</t>
   </si>
   <si>
     <t>9.070</t>
@@ -451,7 +451,7 @@
     <t>47.000</t>
   </si>
   <si>
-    <t>550</t>
+    <t>550.0</t>
   </si>
   <si>
     <t>8.210</t>
@@ -505,7 +505,7 @@
     <t>0.8210</t>
   </si>
   <si>
-    <t>54</t>
+    <t>53.6</t>
   </si>
   <si>
     <t>7.160</t>
@@ -529,7 +529,7 @@
     <t>51.000</t>
   </si>
   <si>
-    <t>&lt;4</t>
+    <t>&lt;4.0</t>
   </si>
   <si>
     <t>8.110</t>
@@ -550,7 +550,7 @@
     <t>29.000</t>
   </si>
   <si>
-    <t>124</t>
+    <t>123.6</t>
   </si>
   <si>
     <t>7.200</t>
@@ -574,7 +574,7 @@
     <t>33.000</t>
   </si>
   <si>
-    <t>123</t>
+    <t>122.8</t>
   </si>
   <si>
     <t>6.830</t>
@@ -595,7 +595,7 @@
     <t>12.000</t>
   </si>
   <si>
-    <t>396</t>
+    <t>396.0</t>
   </si>
   <si>
     <t>7.110</t>
@@ -616,7 +616,7 @@
     <t>0.4410</t>
   </si>
   <si>
-    <t>1844</t>
+    <t>1844.4</t>
   </si>
   <si>
     <t>7.700</t>
@@ -637,7 +637,7 @@
     <t>0.4190</t>
   </si>
   <si>
-    <t>276</t>
+    <t>276.4</t>
   </si>
   <si>
     <t>6.890</t>
@@ -655,7 +655,7 @@
     <t>0.7660</t>
   </si>
   <si>
-    <t>58</t>
+    <t>58.4</t>
   </si>
   <si>
     <t>7.100</t>
@@ -673,7 +673,7 @@
     <t>0.7150</t>
   </si>
   <si>
-    <t>39</t>
+    <t>39.2</t>
   </si>
   <si>
     <t>6.930</t>
@@ -694,7 +694,7 @@
     <t>5.000</t>
   </si>
   <si>
-    <t>271</t>
+    <t>270.8</t>
   </si>
   <si>
     <t>0.2510</t>
@@ -709,7 +709,7 @@
     <t>0.8310</t>
   </si>
   <si>
-    <t>4185</t>
+    <t>4184.8</t>
   </si>
   <si>
     <t>6.810</t>
@@ -781,7 +781,7 @@
     <t>0.8300</t>
   </si>
   <si>
-    <t>4</t>
+    <t>4.0</t>
   </si>
   <si>
     <t>7.130</t>
@@ -811,7 +811,7 @@
     <t>0.9390</t>
   </si>
   <si>
-    <t>475</t>
+    <t>474.8</t>
   </si>
   <si>
     <t>6.980</t>
@@ -829,7 +829,7 @@
     <t>1.4200</t>
   </si>
   <si>
-    <t>6932</t>
+    <t>6931.6</t>
   </si>
   <si>
     <t>7.010</t>
@@ -844,7 +844,7 @@
     <t>0.4250</t>
   </si>
   <si>
-    <t>38</t>
+    <t>38.4</t>
   </si>
   <si>
     <t>5.920</t>
@@ -865,7 +865,7 @@
     <t>2.400</t>
   </si>
   <si>
-    <t>44</t>
+    <t>44.0</t>
   </si>
   <si>
     <t>7.340</t>
@@ -895,6 +895,147 @@
     <t>0.2810</t>
   </si>
   <si>
+    <t>2.00050</t>
+  </si>
+  <si>
+    <t>0.0090</t>
+  </si>
+  <si>
+    <t>59.000</t>
+  </si>
+  <si>
+    <t>7.980</t>
+  </si>
+  <si>
+    <t>0.3460</t>
+  </si>
+  <si>
+    <t>0.11790</t>
+  </si>
+  <si>
+    <t>0.3740</t>
+  </si>
+  <si>
+    <t>5.800</t>
+  </si>
+  <si>
+    <t>20.8</t>
+  </si>
+  <si>
+    <t>7.710</t>
+  </si>
+  <si>
+    <t>0.0050</t>
+  </si>
+  <si>
+    <t>2.000</t>
+  </si>
+  <si>
+    <t>0.2270</t>
+  </si>
+  <si>
+    <t>0.13110</t>
+  </si>
+  <si>
+    <t>0.9670</t>
+  </si>
+  <si>
+    <t>4.300</t>
+  </si>
+  <si>
+    <t>59.2</t>
+  </si>
+  <si>
+    <t>0.0540</t>
+  </si>
+  <si>
+    <t>2.670</t>
+  </si>
+  <si>
+    <t>0.1410</t>
+  </si>
+  <si>
+    <t>0.00400</t>
+  </si>
+  <si>
+    <t>1.9800</t>
+  </si>
+  <si>
+    <t>222.4</t>
+  </si>
+  <si>
+    <t>7.550</t>
+  </si>
+  <si>
+    <t>0.0870</t>
+  </si>
+  <si>
+    <t>3.660</t>
+  </si>
+  <si>
+    <t>0.1460</t>
+  </si>
+  <si>
+    <t>2.7200</t>
+  </si>
+  <si>
+    <t>7.630</t>
+  </si>
+  <si>
+    <t>4.640</t>
+  </si>
+  <si>
+    <t>0.1530</t>
+  </si>
+  <si>
+    <t>4813.2</t>
+  </si>
+  <si>
+    <t>7.370</t>
+  </si>
+  <si>
+    <t>0.4510</t>
+  </si>
+  <si>
+    <t>3.440</t>
+  </si>
+  <si>
+    <t>0.6950</t>
+  </si>
+  <si>
+    <t>0.5070</t>
+  </si>
+  <si>
+    <t>48.4</t>
+  </si>
+  <si>
+    <t>8.010</t>
+  </si>
+  <si>
+    <t>0.2800</t>
+  </si>
+  <si>
+    <t>2.820</t>
+  </si>
+  <si>
+    <t>0.5970</t>
+  </si>
+  <si>
+    <t>0.00080</t>
+  </si>
+  <si>
+    <t>0.0070</t>
+  </si>
+  <si>
+    <t>19.900</t>
+  </si>
+  <si>
+    <t>7.950</t>
+  </si>
+  <si>
+    <t>1.800</t>
+  </si>
+  <si>
     <t>Science - Lakes Sampling</t>
   </si>
   <si>
@@ -929,6 +1070,9 @@
   </si>
   <si>
     <t>Calculation from NNN - Nitrite (both being APHA Online Edition Method 4500)</t>
+  </si>
+  <si>
+    <t>APHA Online Edition Method 4500 NH3 H.</t>
   </si>
   <si>
     <t>g/m3</t>
@@ -1305,7 +1449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I332"/>
+  <dimension ref="A1:I396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1354,10 +1498,10 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="G2" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H2">
         <v>200</v>
@@ -1377,10 +1521,10 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G3" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H3">
         <v>200</v>
@@ -1400,10 +1544,10 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G4" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -1423,7 +1567,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H5">
         <v>600</v>
@@ -1443,7 +1587,7 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="H6">
         <v>200</v>
@@ -1463,7 +1607,7 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="H7">
         <v>200</v>
@@ -1483,10 +1627,10 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="G8" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H8">
         <v>200</v>
@@ -1506,10 +1650,10 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G9" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H9">
         <v>200</v>
@@ -1529,10 +1673,10 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G10" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -1552,7 +1696,7 @@
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H11">
         <v>600</v>
@@ -1572,7 +1716,7 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="H12">
         <v>200</v>
@@ -1592,7 +1736,7 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="H13">
         <v>200</v>
@@ -1612,10 +1756,10 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="G14" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H14">
         <v>200</v>
@@ -1635,10 +1779,10 @@
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G15" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H15">
         <v>200</v>
@@ -1658,10 +1802,10 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G16" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H16">
         <v>200</v>
@@ -1681,7 +1825,7 @@
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="H17">
         <v>200</v>
@@ -1701,7 +1845,7 @@
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="H18">
         <v>200</v>
@@ -1721,10 +1865,10 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="G19" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H19">
         <v>200</v>
@@ -1744,10 +1888,10 @@
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G20" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H20">
         <v>200</v>
@@ -1767,10 +1911,10 @@
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G21" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H21">
         <v>200</v>
@@ -1790,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="G22" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H22">
         <v>600</v>
@@ -1810,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="H23">
         <v>200</v>
@@ -1830,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="H24">
         <v>200</v>
@@ -1850,10 +1994,10 @@
         <v>40</v>
       </c>
       <c r="F25" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="G25" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H25">
         <v>200</v>
@@ -1873,10 +2017,10 @@
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G26" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H26">
         <v>200</v>
@@ -1896,10 +2040,10 @@
         <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G27" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H27">
         <v>200</v>
@@ -1919,7 +2063,7 @@
         <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H28">
         <v>600</v>
@@ -1939,7 +2083,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="H29">
         <v>200</v>
@@ -1959,7 +2103,7 @@
         <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="H30">
         <v>200</v>
@@ -1979,10 +2123,10 @@
         <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="G31" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H31">
         <v>200</v>
@@ -2002,10 +2146,10 @@
         <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G32" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H32">
         <v>200</v>
@@ -2025,10 +2169,10 @@
         <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G33" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H33">
         <v>200</v>
@@ -2048,7 +2192,7 @@
         <v>48</v>
       </c>
       <c r="G34" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H34">
         <v>600</v>
@@ -2068,7 +2212,7 @@
         <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="H35">
         <v>200</v>
@@ -2088,7 +2232,7 @@
         <v>50</v>
       </c>
       <c r="F36" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="H36">
         <v>200</v>
@@ -2108,10 +2252,10 @@
         <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="G37" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H37">
         <v>200</v>
@@ -2131,10 +2275,10 @@
         <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G38" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H38">
         <v>200</v>
@@ -2154,10 +2298,10 @@
         <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G39" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H39">
         <v>200</v>
@@ -2177,7 +2321,7 @@
         <v>54</v>
       </c>
       <c r="G40" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H40">
         <v>600</v>
@@ -2197,7 +2341,7 @@
         <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="H41">
         <v>200</v>
@@ -2217,7 +2361,7 @@
         <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="H42">
         <v>200</v>
@@ -2237,13 +2381,13 @@
         <v>57</v>
       </c>
       <c r="E43" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F43" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="G43" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H43">
         <v>200</v>
@@ -2263,13 +2407,13 @@
         <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F44" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G44" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H44">
         <v>200</v>
@@ -2289,13 +2433,13 @@
         <v>58</v>
       </c>
       <c r="E45" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F45" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G45" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H45">
         <v>200</v>
@@ -2315,10 +2459,10 @@
         <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F46" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="H46">
         <v>200</v>
@@ -2338,10 +2482,10 @@
         <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F47" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="H47">
         <v>200</v>
@@ -2361,13 +2505,13 @@
         <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F48" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="G48" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H48">
         <v>600</v>
@@ -2387,13 +2531,13 @@
         <v>61</v>
       </c>
       <c r="E49" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F49" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G49" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H49">
         <v>600</v>
@@ -2413,13 +2557,13 @@
         <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F50" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G50" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H50">
         <v>600</v>
@@ -2439,10 +2583,10 @@
         <v>59</v>
       </c>
       <c r="E51" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F51" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="H51">
         <v>600</v>
@@ -2462,10 +2606,10 @@
         <v>63</v>
       </c>
       <c r="E52" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F52" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="H52">
         <v>600</v>
@@ -2485,13 +2629,13 @@
         <v>64</v>
       </c>
       <c r="E53" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F53" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="G53" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H53">
         <v>600</v>
@@ -2511,13 +2655,13 @@
         <v>65</v>
       </c>
       <c r="E54" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F54" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G54" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H54">
         <v>600</v>
@@ -2537,13 +2681,13 @@
         <v>66</v>
       </c>
       <c r="E55" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F55" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G55" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H55">
         <v>600</v>
@@ -2563,10 +2707,10 @@
         <v>67</v>
       </c>
       <c r="E56" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F56" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -2586,10 +2730,10 @@
         <v>68</v>
       </c>
       <c r="E57" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F57" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="H57">
         <v>600</v>
@@ -2609,13 +2753,13 @@
         <v>69</v>
       </c>
       <c r="E58" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F58" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="G58" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H58">
         <v>600</v>
@@ -2635,13 +2779,13 @@
         <v>30</v>
       </c>
       <c r="E59" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F59" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G59" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H59">
         <v>600</v>
@@ -2661,13 +2805,13 @@
         <v>70</v>
       </c>
       <c r="E60" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F60" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G60" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H60">
         <v>600</v>
@@ -2687,10 +2831,10 @@
         <v>71</v>
       </c>
       <c r="E61" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F61" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="H61">
         <v>600</v>
@@ -2710,10 +2854,10 @@
         <v>72</v>
       </c>
       <c r="E62" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F62" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="H62">
         <v>600</v>
@@ -2733,13 +2877,13 @@
         <v>73</v>
       </c>
       <c r="E63" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F63" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="G63" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H63">
         <v>600</v>
@@ -2759,13 +2903,13 @@
         <v>24</v>
       </c>
       <c r="E64" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F64" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G64" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H64">
         <v>600</v>
@@ -2785,13 +2929,13 @@
         <v>74</v>
       </c>
       <c r="E65" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F65" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G65" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H65">
         <v>600</v>
@@ -2811,13 +2955,13 @@
         <v>75</v>
       </c>
       <c r="E66" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F66" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G66" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H66">
         <v>600</v>
@@ -2837,10 +2981,10 @@
         <v>76</v>
       </c>
       <c r="E67" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F67" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="H67">
         <v>600</v>
@@ -2860,10 +3004,10 @@
         <v>77</v>
       </c>
       <c r="E68" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F68" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="H68">
         <v>600</v>
@@ -2883,13 +3027,13 @@
         <v>78</v>
       </c>
       <c r="E69" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F69" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="G69" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H69">
         <v>600</v>
@@ -2909,13 +3053,13 @@
         <v>79</v>
       </c>
       <c r="E70" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F70" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G70" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H70">
         <v>600</v>
@@ -2935,13 +3079,13 @@
         <v>80</v>
       </c>
       <c r="E71" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F71" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G71" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H71">
         <v>600</v>
@@ -2961,13 +3105,13 @@
         <v>81</v>
       </c>
       <c r="E72" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F72" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G72" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H72">
         <v>600</v>
@@ -2987,10 +3131,10 @@
         <v>82</v>
       </c>
       <c r="E73" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F73" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="H73">
         <v>600</v>
@@ -3010,10 +3154,10 @@
         <v>20</v>
       </c>
       <c r="E74" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F74" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="H74">
         <v>600</v>
@@ -3033,13 +3177,13 @@
         <v>83</v>
       </c>
       <c r="E75" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F75" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="G75" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H75">
         <v>600</v>
@@ -3059,13 +3203,13 @@
         <v>84</v>
       </c>
       <c r="E76" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F76" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G76" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H76">
         <v>600</v>
@@ -3085,13 +3229,13 @@
         <v>85</v>
       </c>
       <c r="E77" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F77" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G77" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H77">
         <v>600</v>
@@ -3111,13 +3255,13 @@
         <v>86</v>
       </c>
       <c r="E78" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F78" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G78" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H78">
         <v>600</v>
@@ -3137,10 +3281,10 @@
         <v>87</v>
       </c>
       <c r="E79" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F79" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="H79">
         <v>600</v>
@@ -3160,10 +3304,10 @@
         <v>88</v>
       </c>
       <c r="E80" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F80" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="H80">
         <v>600</v>
@@ -3183,7 +3327,7 @@
         <v>89</v>
       </c>
       <c r="G81" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H81">
         <v>600</v>
@@ -3203,13 +3347,13 @@
         <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F82" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="G82" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H82">
         <v>600</v>
@@ -3232,13 +3376,13 @@
         <v>91</v>
       </c>
       <c r="E83" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F83" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G83" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H83">
         <v>600</v>
@@ -3261,13 +3405,13 @@
         <v>92</v>
       </c>
       <c r="E84" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F84" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G84" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H84">
         <v>600</v>
@@ -3290,7 +3434,7 @@
         <v>93</v>
       </c>
       <c r="E85" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G85" t="s">
         <v>8</v>
@@ -3316,13 +3460,13 @@
         <v>94</v>
       </c>
       <c r="E86" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F86" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G86" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H86">
         <v>600</v>
@@ -3345,10 +3489,10 @@
         <v>95</v>
       </c>
       <c r="E87" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F87" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="H87">
         <v>600</v>
@@ -3371,10 +3515,10 @@
         <v>96</v>
       </c>
       <c r="E88" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F88" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="H88">
         <v>600</v>
@@ -3397,13 +3541,13 @@
         <v>51</v>
       </c>
       <c r="E89" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F89" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="G89" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H89">
         <v>600</v>
@@ -3423,13 +3567,13 @@
         <v>97</v>
       </c>
       <c r="E90" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F90" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G90" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H90">
         <v>600</v>
@@ -3449,13 +3593,13 @@
         <v>98</v>
       </c>
       <c r="E91" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F91" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G91" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H91">
         <v>600</v>
@@ -3475,13 +3619,13 @@
         <v>70</v>
       </c>
       <c r="E92" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F92" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G92" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H92">
         <v>600</v>
@@ -3501,10 +3645,10 @@
         <v>99</v>
       </c>
       <c r="E93" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F93" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="H93">
         <v>600</v>
@@ -3524,10 +3668,10 @@
         <v>100</v>
       </c>
       <c r="E94" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F94" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="H94">
         <v>600</v>
@@ -3547,7 +3691,7 @@
         <v>101</v>
       </c>
       <c r="G95" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H95">
         <v>600</v>
@@ -3567,13 +3711,13 @@
         <v>102</v>
       </c>
       <c r="E96" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F96" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="G96" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H96">
         <v>600</v>
@@ -3596,13 +3740,13 @@
         <v>103</v>
       </c>
       <c r="E97" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F97" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G97" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H97">
         <v>600</v>
@@ -3625,13 +3769,13 @@
         <v>104</v>
       </c>
       <c r="E98" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F98" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G98" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H98">
         <v>600</v>
@@ -3654,7 +3798,7 @@
         <v>105</v>
       </c>
       <c r="E99" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G99" t="s">
         <v>8</v>
@@ -3680,13 +3824,13 @@
         <v>106</v>
       </c>
       <c r="E100" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F100" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G100" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H100">
         <v>600</v>
@@ -3709,10 +3853,10 @@
         <v>107</v>
       </c>
       <c r="E101" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F101" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H101">
         <v>500</v>
@@ -3735,10 +3879,10 @@
         <v>108</v>
       </c>
       <c r="E102" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F102" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H102">
         <v>600</v>
@@ -3761,13 +3905,13 @@
         <v>109</v>
       </c>
       <c r="E103" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F103" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="G103" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H103">
         <v>600</v>
@@ -3787,13 +3931,13 @@
         <v>24</v>
       </c>
       <c r="E104" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F104" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G104" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H104">
         <v>600</v>
@@ -3813,13 +3957,13 @@
         <v>85</v>
       </c>
       <c r="E105" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F105" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G105" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H105">
         <v>600</v>
@@ -3839,13 +3983,13 @@
         <v>110</v>
       </c>
       <c r="E106" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F106" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G106" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H106">
         <v>600</v>
@@ -3865,10 +4009,10 @@
         <v>111</v>
       </c>
       <c r="E107" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F107" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H107">
         <v>600</v>
@@ -3888,10 +4032,10 @@
         <v>112</v>
       </c>
       <c r="E108" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F108" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H108">
         <v>600</v>
@@ -3911,7 +4055,7 @@
         <v>113</v>
       </c>
       <c r="G109" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H109">
         <v>600</v>
@@ -3931,13 +4075,13 @@
         <v>114</v>
       </c>
       <c r="E110" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F110" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="G110" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H110">
         <v>600</v>
@@ -3960,13 +4104,13 @@
         <v>115</v>
       </c>
       <c r="E111" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F111" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G111" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H111">
         <v>600</v>
@@ -3989,13 +4133,13 @@
         <v>85</v>
       </c>
       <c r="E112" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F112" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G112" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H112">
         <v>600</v>
@@ -4018,7 +4162,7 @@
         <v>116</v>
       </c>
       <c r="E113" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G113" t="s">
         <v>8</v>
@@ -4044,13 +4188,13 @@
         <v>70</v>
       </c>
       <c r="E114" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F114" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G114" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H114">
         <v>600</v>
@@ -4073,10 +4217,10 @@
         <v>117</v>
       </c>
       <c r="E115" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F115" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H115">
         <v>600</v>
@@ -4099,10 +4243,10 @@
         <v>118</v>
       </c>
       <c r="E116" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F116" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H116">
         <v>600</v>
@@ -4125,7 +4269,7 @@
         <v>119</v>
       </c>
       <c r="G117" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H117">
         <v>600</v>
@@ -4145,13 +4289,13 @@
         <v>120</v>
       </c>
       <c r="E118" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F118" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="G118" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H118">
         <v>600</v>
@@ -4174,13 +4318,13 @@
         <v>121</v>
       </c>
       <c r="E119" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F119" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G119" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H119">
         <v>600</v>
@@ -4203,13 +4347,13 @@
         <v>122</v>
       </c>
       <c r="E120" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F120" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G120" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H120">
         <v>600</v>
@@ -4232,7 +4376,7 @@
         <v>123</v>
       </c>
       <c r="E121" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G121" t="s">
         <v>8</v>
@@ -4258,13 +4402,13 @@
         <v>124</v>
       </c>
       <c r="E122" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F122" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G122" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H122">
         <v>600</v>
@@ -4287,10 +4431,10 @@
         <v>125</v>
       </c>
       <c r="E123" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F123" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H123">
         <v>600</v>
@@ -4313,10 +4457,10 @@
         <v>126</v>
       </c>
       <c r="E124" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F124" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H124">
         <v>600</v>
@@ -4339,7 +4483,7 @@
         <v>127</v>
       </c>
       <c r="G125" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H125">
         <v>600</v>
@@ -4359,13 +4503,13 @@
         <v>128</v>
       </c>
       <c r="E126" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F126" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="G126" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H126">
         <v>600</v>
@@ -4388,13 +4532,13 @@
         <v>129</v>
       </c>
       <c r="E127" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F127" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G127" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H127">
         <v>600</v>
@@ -4417,13 +4561,13 @@
         <v>130</v>
       </c>
       <c r="E128" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F128" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G128" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H128">
         <v>600</v>
@@ -4446,7 +4590,7 @@
         <v>131</v>
       </c>
       <c r="E129" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G129" t="s">
         <v>8</v>
@@ -4472,13 +4616,13 @@
         <v>132</v>
       </c>
       <c r="E130" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F130" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G130" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H130">
         <v>600</v>
@@ -4501,10 +4645,10 @@
         <v>133</v>
       </c>
       <c r="E131" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F131" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H131">
         <v>600</v>
@@ -4527,10 +4671,10 @@
         <v>134</v>
       </c>
       <c r="E132" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F132" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H132">
         <v>600</v>
@@ -4553,7 +4697,7 @@
         <v>135</v>
       </c>
       <c r="G133" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H133">
         <v>600</v>
@@ -4573,13 +4717,13 @@
         <v>136</v>
       </c>
       <c r="E134" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F134" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="G134" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H134">
         <v>600</v>
@@ -4602,13 +4746,13 @@
         <v>137</v>
       </c>
       <c r="E135" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F135" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G135" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H135">
         <v>600</v>
@@ -4631,13 +4775,13 @@
         <v>138</v>
       </c>
       <c r="E136" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F136" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G136" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H136">
         <v>600</v>
@@ -4660,7 +4804,7 @@
         <v>139</v>
       </c>
       <c r="E137" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G137" t="s">
         <v>8</v>
@@ -4686,13 +4830,13 @@
         <v>70</v>
       </c>
       <c r="E138" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F138" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G138" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H138">
         <v>600</v>
@@ -4715,10 +4859,10 @@
         <v>140</v>
       </c>
       <c r="E139" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F139" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H139">
         <v>600</v>
@@ -4741,10 +4885,10 @@
         <v>141</v>
       </c>
       <c r="E140" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F140" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H140">
         <v>600</v>
@@ -4767,7 +4911,7 @@
         <v>142</v>
       </c>
       <c r="G141" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H141">
         <v>600</v>
@@ -4787,13 +4931,13 @@
         <v>143</v>
       </c>
       <c r="E142" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F142" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="G142" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H142">
         <v>600</v>
@@ -4816,13 +4960,13 @@
         <v>144</v>
       </c>
       <c r="E143" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F143" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G143" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H143">
         <v>600</v>
@@ -4845,13 +4989,13 @@
         <v>145</v>
       </c>
       <c r="E144" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F144" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G144" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H144">
         <v>600</v>
@@ -4874,7 +5018,7 @@
         <v>146</v>
       </c>
       <c r="E145" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G145" t="s">
         <v>8</v>
@@ -4900,13 +5044,13 @@
         <v>110</v>
       </c>
       <c r="E146" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F146" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G146" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H146">
         <v>600</v>
@@ -4929,10 +5073,10 @@
         <v>147</v>
       </c>
       <c r="E147" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F147" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H147">
         <v>600</v>
@@ -4955,10 +5099,10 @@
         <v>148</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F148" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H148">
         <v>600</v>
@@ -4981,7 +5125,7 @@
         <v>149</v>
       </c>
       <c r="G149" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H149">
         <v>600</v>
@@ -5001,13 +5145,13 @@
         <v>150</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F150" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="G150" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H150">
         <v>600</v>
@@ -5030,13 +5174,13 @@
         <v>133</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F151" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G151" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H151">
         <v>600</v>
@@ -5059,13 +5203,13 @@
         <v>42</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G152" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H152">
         <v>600</v>
@@ -5088,7 +5232,7 @@
         <v>151</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G153" t="s">
         <v>8</v>
@@ -5114,13 +5258,13 @@
         <v>152</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F154" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G154" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H154">
         <v>600</v>
@@ -5143,10 +5287,10 @@
         <v>153</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F155" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H155">
         <v>600</v>
@@ -5169,10 +5313,10 @@
         <v>154</v>
       </c>
       <c r="E156" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H156">
         <v>600</v>
@@ -5195,7 +5339,7 @@
         <v>155</v>
       </c>
       <c r="G157" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H157">
         <v>600</v>
@@ -5215,13 +5359,13 @@
         <v>156</v>
       </c>
       <c r="E158" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F158" t="s">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="G158" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H158">
         <v>600</v>
@@ -5244,13 +5388,13 @@
         <v>157</v>
       </c>
       <c r="E159" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F159" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G159" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H159">
         <v>600</v>
@@ -5273,13 +5417,13 @@
         <v>25</v>
       </c>
       <c r="E160" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F160" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G160" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H160">
         <v>600</v>
@@ -5302,7 +5446,7 @@
         <v>158</v>
       </c>
       <c r="E161" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G161" t="s">
         <v>8</v>
@@ -5328,13 +5472,13 @@
         <v>159</v>
       </c>
       <c r="E162" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F162" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G162" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H162">
         <v>600</v>
@@ -5357,10 +5501,10 @@
         <v>160</v>
       </c>
       <c r="E163" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F163" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H163">
         <v>600</v>
@@ -5383,10 +5527,10 @@
         <v>161</v>
       </c>
       <c r="E164" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F164" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H164">
         <v>600</v>
@@ -5409,7 +5553,7 @@
         <v>127</v>
       </c>
       <c r="G165" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H165">
         <v>600</v>
@@ -5429,13 +5573,13 @@
         <v>162</v>
       </c>
       <c r="E166" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F166" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G166" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H166">
         <v>600</v>
@@ -5458,13 +5602,13 @@
         <v>24</v>
       </c>
       <c r="E167" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F167" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G167" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H167">
         <v>600</v>
@@ -5487,13 +5631,13 @@
         <v>163</v>
       </c>
       <c r="E168" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F168" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G168" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H168">
         <v>600</v>
@@ -5516,7 +5660,7 @@
         <v>164</v>
       </c>
       <c r="E169" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G169" t="s">
         <v>8</v>
@@ -5542,13 +5686,13 @@
         <v>165</v>
       </c>
       <c r="E170" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F170" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G170" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H170">
         <v>600</v>
@@ -5571,10 +5715,10 @@
         <v>166</v>
       </c>
       <c r="E171" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F171" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H171">
         <v>600</v>
@@ -5597,10 +5741,10 @@
         <v>167</v>
       </c>
       <c r="E172" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F172" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H172">
         <v>600</v>
@@ -5623,7 +5767,7 @@
         <v>168</v>
       </c>
       <c r="G173" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H173">
         <v>600</v>
@@ -5643,13 +5787,13 @@
         <v>169</v>
       </c>
       <c r="E174" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F174" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G174" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H174">
         <v>600</v>
@@ -5672,13 +5816,13 @@
         <v>170</v>
       </c>
       <c r="E175" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F175" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G175" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H175">
         <v>600</v>
@@ -5701,13 +5845,13 @@
         <v>171</v>
       </c>
       <c r="E176" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F176" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G176" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H176">
         <v>600</v>
@@ -5730,7 +5874,7 @@
         <v>172</v>
       </c>
       <c r="E177" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G177" t="s">
         <v>8</v>
@@ -5756,13 +5900,13 @@
         <v>94</v>
       </c>
       <c r="E178" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F178" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G178" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H178">
         <v>600</v>
@@ -5785,10 +5929,10 @@
         <v>173</v>
       </c>
       <c r="E179" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F179" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H179">
         <v>600</v>
@@ -5811,10 +5955,10 @@
         <v>174</v>
       </c>
       <c r="E180" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F180" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H180">
         <v>600</v>
@@ -5837,7 +5981,7 @@
         <v>175</v>
       </c>
       <c r="G181" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H181">
         <v>600</v>
@@ -5857,13 +6001,13 @@
         <v>176</v>
       </c>
       <c r="E182" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F182" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G182" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H182">
         <v>600</v>
@@ -5886,13 +6030,13 @@
         <v>177</v>
       </c>
       <c r="E183" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F183" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G183" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H183">
         <v>600</v>
@@ -5915,13 +6059,13 @@
         <v>178</v>
       </c>
       <c r="E184" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F184" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G184" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H184">
         <v>600</v>
@@ -5944,7 +6088,7 @@
         <v>179</v>
       </c>
       <c r="E185" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G185" t="s">
         <v>8</v>
@@ -5970,13 +6114,13 @@
         <v>180</v>
       </c>
       <c r="E186" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F186" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G186" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H186">
         <v>600</v>
@@ -5999,10 +6143,10 @@
         <v>181</v>
       </c>
       <c r="E187" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F187" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H187">
         <v>600</v>
@@ -6025,10 +6169,10 @@
         <v>182</v>
       </c>
       <c r="E188" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F188" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H188">
         <v>600</v>
@@ -6051,7 +6195,7 @@
         <v>183</v>
       </c>
       <c r="G189" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H189">
         <v>600</v>
@@ -6071,13 +6215,13 @@
         <v>184</v>
       </c>
       <c r="E190" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F190" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G190" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H190">
         <v>600</v>
@@ -6100,13 +6244,13 @@
         <v>185</v>
       </c>
       <c r="E191" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F191" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G191" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H191">
         <v>600</v>
@@ -6129,13 +6273,13 @@
         <v>186</v>
       </c>
       <c r="E192" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F192" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G192" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H192">
         <v>600</v>
@@ -6158,7 +6302,7 @@
         <v>187</v>
       </c>
       <c r="E193" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G193" t="s">
         <v>8</v>
@@ -6184,13 +6328,13 @@
         <v>188</v>
       </c>
       <c r="E194" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F194" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G194" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H194">
         <v>600</v>
@@ -6213,10 +6357,10 @@
         <v>189</v>
       </c>
       <c r="E195" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F195" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H195">
         <v>600</v>
@@ -6239,10 +6383,10 @@
         <v>190</v>
       </c>
       <c r="E196" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F196" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H196">
         <v>600</v>
@@ -6265,7 +6409,7 @@
         <v>191</v>
       </c>
       <c r="G197" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H197">
         <v>600</v>
@@ -6285,13 +6429,13 @@
         <v>150</v>
       </c>
       <c r="E198" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F198" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G198" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H198">
         <v>600</v>
@@ -6314,13 +6458,13 @@
         <v>192</v>
       </c>
       <c r="E199" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F199" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G199" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H199">
         <v>600</v>
@@ -6343,13 +6487,13 @@
         <v>193</v>
       </c>
       <c r="E200" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F200" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G200" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H200">
         <v>600</v>
@@ -6372,7 +6516,7 @@
         <v>194</v>
       </c>
       <c r="E201" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G201" t="s">
         <v>8</v>
@@ -6398,13 +6542,13 @@
         <v>195</v>
       </c>
       <c r="E202" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F202" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G202" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H202">
         <v>600</v>
@@ -6427,10 +6571,10 @@
         <v>196</v>
       </c>
       <c r="E203" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F203" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H203">
         <v>600</v>
@@ -6453,10 +6597,10 @@
         <v>197</v>
       </c>
       <c r="E204" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F204" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H204">
         <v>600</v>
@@ -6479,7 +6623,7 @@
         <v>198</v>
       </c>
       <c r="G205" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H205">
         <v>600</v>
@@ -6499,13 +6643,13 @@
         <v>199</v>
       </c>
       <c r="E206" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F206" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G206" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H206">
         <v>600</v>
@@ -6528,13 +6672,13 @@
         <v>24</v>
       </c>
       <c r="E207" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F207" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G207" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H207">
         <v>600</v>
@@ -6557,13 +6701,13 @@
         <v>200</v>
       </c>
       <c r="E208" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F208" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G208" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H208">
         <v>600</v>
@@ -6586,7 +6730,7 @@
         <v>201</v>
       </c>
       <c r="E209" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G209" t="s">
         <v>8</v>
@@ -6612,13 +6756,13 @@
         <v>202</v>
       </c>
       <c r="E210" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F210" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G210" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H210">
         <v>600</v>
@@ -6641,10 +6785,10 @@
         <v>203</v>
       </c>
       <c r="E211" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F211" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H211">
         <v>600</v>
@@ -6667,10 +6811,10 @@
         <v>204</v>
       </c>
       <c r="E212" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F212" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H212">
         <v>600</v>
@@ -6693,7 +6837,7 @@
         <v>205</v>
       </c>
       <c r="G213" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H213">
         <v>600</v>
@@ -6713,13 +6857,13 @@
         <v>206</v>
       </c>
       <c r="E214" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F214" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G214" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H214">
         <v>600</v>
@@ -6742,13 +6886,13 @@
         <v>24</v>
       </c>
       <c r="E215" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F215" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G215" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H215">
         <v>600</v>
@@ -6771,13 +6915,13 @@
         <v>207</v>
       </c>
       <c r="E216" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F216" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G216" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H216">
         <v>600</v>
@@ -6800,7 +6944,7 @@
         <v>208</v>
       </c>
       <c r="E217" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G217" t="s">
         <v>8</v>
@@ -6826,13 +6970,13 @@
         <v>209</v>
       </c>
       <c r="E218" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F218" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G218" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H218">
         <v>600</v>
@@ -6855,10 +6999,10 @@
         <v>210</v>
       </c>
       <c r="E219" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F219" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H219">
         <v>600</v>
@@ -6881,10 +7025,10 @@
         <v>211</v>
       </c>
       <c r="E220" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F220" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H220">
         <v>600</v>
@@ -6907,7 +7051,7 @@
         <v>101</v>
       </c>
       <c r="G221" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H221">
         <v>600</v>
@@ -6927,13 +7071,13 @@
         <v>212</v>
       </c>
       <c r="E222" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F222" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G222" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H222">
         <v>600</v>
@@ -6956,13 +7100,13 @@
         <v>24</v>
       </c>
       <c r="E223" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F223" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G223" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H223">
         <v>600</v>
@@ -6985,13 +7129,13 @@
         <v>213</v>
       </c>
       <c r="E224" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F224" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G224" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H224">
         <v>600</v>
@@ -7014,7 +7158,7 @@
         <v>214</v>
       </c>
       <c r="E225" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G225" t="s">
         <v>8</v>
@@ -7040,13 +7184,13 @@
         <v>215</v>
       </c>
       <c r="E226" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F226" t="s">
-        <v>299</v>
+        <v>346</v>
       </c>
       <c r="G226" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H226">
         <v>600</v>
@@ -7069,10 +7213,10 @@
         <v>216</v>
       </c>
       <c r="E227" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F227" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H227">
         <v>600</v>
@@ -7095,10 +7239,10 @@
         <v>217</v>
       </c>
       <c r="E228" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F228" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H228">
         <v>600</v>
@@ -7121,7 +7265,7 @@
         <v>101</v>
       </c>
       <c r="G229" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H229">
         <v>600</v>
@@ -7141,13 +7285,13 @@
         <v>218</v>
       </c>
       <c r="E230" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F230" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G230" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H230">
         <v>600</v>
@@ -7170,13 +7314,13 @@
         <v>24</v>
       </c>
       <c r="E231" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F231" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G231" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H231">
         <v>600</v>
@@ -7199,13 +7343,13 @@
         <v>219</v>
       </c>
       <c r="E232" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F232" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G232" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H232">
         <v>600</v>
@@ -7228,7 +7372,7 @@
         <v>220</v>
       </c>
       <c r="E233" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G233" t="s">
         <v>8</v>
@@ -7254,13 +7398,13 @@
         <v>221</v>
       </c>
       <c r="E234" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F234" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="G234" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H234">
         <v>600</v>
@@ -7283,10 +7427,10 @@
         <v>222</v>
       </c>
       <c r="E235" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F235" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H235">
         <v>600</v>
@@ -7309,10 +7453,10 @@
         <v>223</v>
       </c>
       <c r="E236" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F236" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H236">
         <v>600</v>
@@ -7335,7 +7479,7 @@
         <v>101</v>
       </c>
       <c r="G237" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H237">
         <v>600</v>
@@ -7355,13 +7499,13 @@
         <v>224</v>
       </c>
       <c r="E238" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F238" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G238" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H238">
         <v>600</v>
@@ -7384,13 +7528,13 @@
         <v>225</v>
       </c>
       <c r="E239" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F239" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G239" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H239">
         <v>600</v>
@@ -7413,13 +7557,13 @@
         <v>226</v>
       </c>
       <c r="E240" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F240" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G240" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H240">
         <v>600</v>
@@ -7442,7 +7586,7 @@
         <v>220</v>
       </c>
       <c r="E241" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G241" t="s">
         <v>8</v>
@@ -7468,13 +7612,13 @@
         <v>227</v>
       </c>
       <c r="E242" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F242" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="G242" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H242">
         <v>600</v>
@@ -7497,10 +7641,10 @@
         <v>147</v>
       </c>
       <c r="E243" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F243" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H243">
         <v>600</v>
@@ -7523,10 +7667,10 @@
         <v>228</v>
       </c>
       <c r="E244" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F244" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H244">
         <v>600</v>
@@ -7549,7 +7693,7 @@
         <v>229</v>
       </c>
       <c r="G245" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H245">
         <v>600</v>
@@ -7569,13 +7713,13 @@
         <v>230</v>
       </c>
       <c r="E246" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F246" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G246" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H246">
         <v>600</v>
@@ -7598,13 +7742,13 @@
         <v>24</v>
       </c>
       <c r="E247" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F247" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G247" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H247">
         <v>600</v>
@@ -7627,13 +7771,13 @@
         <v>231</v>
       </c>
       <c r="E248" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F248" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G248" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H248">
         <v>600</v>
@@ -7656,7 +7800,7 @@
         <v>232</v>
       </c>
       <c r="E249" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G249" t="s">
         <v>8</v>
@@ -7682,13 +7826,13 @@
         <v>233</v>
       </c>
       <c r="E250" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F250" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="G250" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H250">
         <v>600</v>
@@ -7711,10 +7855,10 @@
         <v>234</v>
       </c>
       <c r="E251" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F251" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H251">
         <v>600</v>
@@ -7737,10 +7881,10 @@
         <v>235</v>
       </c>
       <c r="E252" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F252" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H252">
         <v>600</v>
@@ -7763,7 +7907,7 @@
         <v>236</v>
       </c>
       <c r="G253" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H253">
         <v>600</v>
@@ -7783,13 +7927,13 @@
         <v>237</v>
       </c>
       <c r="E254" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F254" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G254" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H254">
         <v>600</v>
@@ -7812,13 +7956,13 @@
         <v>238</v>
       </c>
       <c r="E255" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F255" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G255" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H255">
         <v>600</v>
@@ -7841,13 +7985,13 @@
         <v>171</v>
       </c>
       <c r="E256" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F256" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G256" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H256">
         <v>600</v>
@@ -7870,7 +8014,7 @@
         <v>239</v>
       </c>
       <c r="E257" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G257" t="s">
         <v>8</v>
@@ -7896,13 +8040,13 @@
         <v>240</v>
       </c>
       <c r="E258" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F258" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="G258" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H258">
         <v>600</v>
@@ -7925,10 +8069,10 @@
         <v>241</v>
       </c>
       <c r="E259" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F259" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H259">
         <v>600</v>
@@ -7951,10 +8095,10 @@
         <v>242</v>
       </c>
       <c r="E260" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F260" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H260">
         <v>600</v>
@@ -7977,7 +8121,7 @@
         <v>243</v>
       </c>
       <c r="G261" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H261">
         <v>600</v>
@@ -7997,13 +8141,13 @@
         <v>244</v>
       </c>
       <c r="E262" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F262" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G262" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H262">
         <v>600</v>
@@ -8026,13 +8170,13 @@
         <v>103</v>
       </c>
       <c r="E263" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F263" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G263" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H263">
         <v>600</v>
@@ -8055,13 +8199,13 @@
         <v>42</v>
       </c>
       <c r="E264" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F264" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G264" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H264">
         <v>600</v>
@@ -8084,7 +8228,7 @@
         <v>194</v>
       </c>
       <c r="E265" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G265" t="s">
         <v>8</v>
@@ -8110,13 +8254,13 @@
         <v>245</v>
       </c>
       <c r="E266" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F266" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="G266" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H266">
         <v>600</v>
@@ -8139,10 +8283,10 @@
         <v>27</v>
       </c>
       <c r="E267" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F267" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H267">
         <v>600</v>
@@ -8165,10 +8309,10 @@
         <v>246</v>
       </c>
       <c r="E268" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F268" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H268">
         <v>600</v>
@@ -8191,7 +8335,7 @@
         <v>247</v>
       </c>
       <c r="G269" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H269">
         <v>600</v>
@@ -8211,13 +8355,13 @@
         <v>248</v>
       </c>
       <c r="E270" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F270" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G270" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H270">
         <v>600</v>
@@ -8240,13 +8384,13 @@
         <v>35</v>
       </c>
       <c r="E271" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F271" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G271" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H271">
         <v>600</v>
@@ -8269,13 +8413,13 @@
         <v>163</v>
       </c>
       <c r="E272" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F272" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G272" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H272">
         <v>600</v>
@@ -8298,7 +8442,7 @@
         <v>249</v>
       </c>
       <c r="E273" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G273" t="s">
         <v>8</v>
@@ -8324,13 +8468,13 @@
         <v>250</v>
       </c>
       <c r="E274" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F274" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="G274" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H274">
         <v>600</v>
@@ -8353,10 +8497,10 @@
         <v>251</v>
       </c>
       <c r="E275" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F275" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H275">
         <v>600</v>
@@ -8379,10 +8523,10 @@
         <v>252</v>
       </c>
       <c r="E276" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F276" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H276">
         <v>600</v>
@@ -8405,7 +8549,7 @@
         <v>253</v>
       </c>
       <c r="G277" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H277">
         <v>600</v>
@@ -8425,13 +8569,13 @@
         <v>254</v>
       </c>
       <c r="E278" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F278" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G278" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H278">
         <v>600</v>
@@ -8454,13 +8598,13 @@
         <v>47</v>
       </c>
       <c r="E279" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F279" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G279" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H279">
         <v>600</v>
@@ -8483,13 +8627,13 @@
         <v>255</v>
       </c>
       <c r="E280" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F280" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G280" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H280">
         <v>600</v>
@@ -8512,7 +8656,7 @@
         <v>256</v>
       </c>
       <c r="E281" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G281" t="s">
         <v>8</v>
@@ -8538,13 +8682,13 @@
         <v>257</v>
       </c>
       <c r="E282" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F282" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="G282" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H282">
         <v>600</v>
@@ -8567,10 +8711,10 @@
         <v>157</v>
       </c>
       <c r="E283" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F283" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H283">
         <v>600</v>
@@ -8593,10 +8737,10 @@
         <v>258</v>
       </c>
       <c r="E284" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F284" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H284">
         <v>600</v>
@@ -8619,7 +8763,7 @@
         <v>101</v>
       </c>
       <c r="G285" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H285">
         <v>600</v>
@@ -8639,13 +8783,13 @@
         <v>259</v>
       </c>
       <c r="E286" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F286" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G286" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H286">
         <v>600</v>
@@ -8668,13 +8812,13 @@
         <v>24</v>
       </c>
       <c r="E287" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F287" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G287" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H287">
         <v>600</v>
@@ -8697,13 +8841,13 @@
         <v>171</v>
       </c>
       <c r="E288" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F288" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G288" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H288">
         <v>600</v>
@@ -8726,7 +8870,7 @@
         <v>260</v>
       </c>
       <c r="E289" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G289" t="s">
         <v>8</v>
@@ -8752,13 +8896,13 @@
         <v>261</v>
       </c>
       <c r="E290" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F290" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="G290" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H290">
         <v>600</v>
@@ -8781,10 +8925,10 @@
         <v>262</v>
       </c>
       <c r="E291" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F291" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H291">
         <v>600</v>
@@ -8807,10 +8951,10 @@
         <v>263</v>
       </c>
       <c r="E292" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F292" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H292">
         <v>600</v>
@@ -8833,7 +8977,7 @@
         <v>101</v>
       </c>
       <c r="G293" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H293">
         <v>600</v>
@@ -8853,13 +8997,13 @@
         <v>264</v>
       </c>
       <c r="E294" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F294" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G294" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H294">
         <v>600</v>
@@ -8882,13 +9026,13 @@
         <v>24</v>
       </c>
       <c r="E295" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F295" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G295" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H295">
         <v>600</v>
@@ -8911,13 +9055,13 @@
         <v>265</v>
       </c>
       <c r="E296" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F296" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G296" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H296">
         <v>600</v>
@@ -8940,7 +9084,7 @@
         <v>266</v>
       </c>
       <c r="E297" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G297" t="s">
         <v>8</v>
@@ -8966,13 +9110,13 @@
         <v>267</v>
       </c>
       <c r="E298" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F298" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="G298" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H298">
         <v>600</v>
@@ -8995,10 +9139,10 @@
         <v>268</v>
       </c>
       <c r="E299" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F299" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H299">
         <v>600</v>
@@ -9021,10 +9165,10 @@
         <v>269</v>
       </c>
       <c r="E300" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F300" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H300">
         <v>600</v>
@@ -9047,7 +9191,7 @@
         <v>198</v>
       </c>
       <c r="G301" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H301">
         <v>600</v>
@@ -9067,13 +9211,13 @@
         <v>270</v>
       </c>
       <c r="E302" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F302" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G302" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H302">
         <v>600</v>
@@ -9096,13 +9240,13 @@
         <v>24</v>
       </c>
       <c r="E303" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F303" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G303" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H303">
         <v>600</v>
@@ -9125,13 +9269,13 @@
         <v>271</v>
       </c>
       <c r="E304" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F304" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G304" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H304">
         <v>600</v>
@@ -9154,7 +9298,7 @@
         <v>272</v>
       </c>
       <c r="E305" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G305" t="s">
         <v>8</v>
@@ -9180,13 +9324,13 @@
         <v>273</v>
       </c>
       <c r="E306" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F306" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="G306" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H306">
         <v>600</v>
@@ -9209,10 +9353,10 @@
         <v>274</v>
       </c>
       <c r="E307" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F307" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H307">
         <v>600</v>
@@ -9235,10 +9379,10 @@
         <v>275</v>
       </c>
       <c r="E308" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F308" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H308">
         <v>600</v>
@@ -9261,7 +9405,7 @@
         <v>205</v>
       </c>
       <c r="G309" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H309">
         <v>600</v>
@@ -9281,13 +9425,13 @@
         <v>17</v>
       </c>
       <c r="E310" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F310" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G310" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H310">
         <v>600</v>
@@ -9310,13 +9454,13 @@
         <v>24</v>
       </c>
       <c r="E311" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F311" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G311" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H311">
         <v>600</v>
@@ -9339,13 +9483,13 @@
         <v>276</v>
       </c>
       <c r="E312" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F312" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G312" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H312">
         <v>600</v>
@@ -9368,7 +9512,7 @@
         <v>277</v>
       </c>
       <c r="E313" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G313" t="s">
         <v>8</v>
@@ -9394,13 +9538,13 @@
         <v>278</v>
       </c>
       <c r="E314" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F314" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="G314" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H314">
         <v>600</v>
@@ -9423,10 +9567,10 @@
         <v>166</v>
       </c>
       <c r="E315" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F315" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H315">
         <v>600</v>
@@ -9449,10 +9593,10 @@
         <v>279</v>
       </c>
       <c r="E316" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F316" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H316">
         <v>600</v>
@@ -9475,7 +9619,7 @@
         <v>280</v>
       </c>
       <c r="G317" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H317">
         <v>600</v>
@@ -9495,13 +9639,13 @@
         <v>281</v>
       </c>
       <c r="E318" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F318" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G318" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H318">
         <v>600</v>
@@ -9524,13 +9668,13 @@
         <v>282</v>
       </c>
       <c r="E319" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F319" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G319" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H319">
         <v>600</v>
@@ -9553,13 +9697,13 @@
         <v>283</v>
       </c>
       <c r="E320" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F320" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G320" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H320">
         <v>600</v>
@@ -9582,7 +9726,7 @@
         <v>284</v>
       </c>
       <c r="E321" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G321" t="s">
         <v>8</v>
@@ -9608,13 +9752,13 @@
         <v>285</v>
       </c>
       <c r="E322" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F322" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="G322" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H322">
         <v>600</v>
@@ -9637,10 +9781,10 @@
         <v>286</v>
       </c>
       <c r="E323" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F323" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H323">
         <v>600</v>
@@ -9663,10 +9807,10 @@
         <v>165</v>
       </c>
       <c r="E324" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F324" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H324">
         <v>600</v>
@@ -9689,7 +9833,7 @@
         <v>287</v>
       </c>
       <c r="G325" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="H325">
         <v>600</v>
@@ -9709,13 +9853,13 @@
         <v>288</v>
       </c>
       <c r="E326" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F326" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="G326" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="H326">
         <v>600</v>
@@ -9738,13 +9882,13 @@
         <v>24</v>
       </c>
       <c r="E327" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F327" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G327" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="H327">
         <v>600</v>
@@ -9767,13 +9911,13 @@
         <v>255</v>
       </c>
       <c r="E328" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F328" t="s">
-        <v>296</v>
+        <v>343</v>
       </c>
       <c r="G328" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="H328">
         <v>600</v>
@@ -9796,7 +9940,7 @@
         <v>289</v>
       </c>
       <c r="E329" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="G329" t="s">
         <v>8</v>
@@ -9822,13 +9966,13 @@
         <v>290</v>
       </c>
       <c r="E330" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F330" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="G330" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="H330">
         <v>600</v>
@@ -9851,10 +9995,10 @@
         <v>291</v>
       </c>
       <c r="E331" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F331" t="s">
-        <v>301</v>
+        <v>348</v>
       </c>
       <c r="H331">
         <v>600</v>
@@ -9877,16 +10021,1728 @@
         <v>292</v>
       </c>
       <c r="E332" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="F332" t="s">
-        <v>302</v>
+        <v>349</v>
       </c>
       <c r="H332">
         <v>600</v>
       </c>
       <c r="I332">
         <v>7.83</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" t="s">
+        <v>9</v>
+      </c>
+      <c r="B333" t="s">
+        <v>16</v>
+      </c>
+      <c r="C333" s="2">
+        <v>45308.00048611111</v>
+      </c>
+      <c r="D333" t="s">
+        <v>293</v>
+      </c>
+      <c r="G333" t="s">
+        <v>357</v>
+      </c>
+      <c r="H333">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" t="s">
+        <v>9</v>
+      </c>
+      <c r="B334" t="s">
+        <v>10</v>
+      </c>
+      <c r="C334" s="2">
+        <v>45308.39583333334</v>
+      </c>
+      <c r="D334" t="s">
+        <v>294</v>
+      </c>
+      <c r="E334" t="s">
+        <v>340</v>
+      </c>
+      <c r="F334" t="s">
+        <v>350</v>
+      </c>
+      <c r="G334" t="s">
+        <v>353</v>
+      </c>
+      <c r="H334">
+        <v>600</v>
+      </c>
+      <c r="I334">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" t="s">
+        <v>9</v>
+      </c>
+      <c r="B335" t="s">
+        <v>11</v>
+      </c>
+      <c r="C335" s="2">
+        <v>45308.39583333334</v>
+      </c>
+      <c r="D335" t="s">
+        <v>295</v>
+      </c>
+      <c r="E335" t="s">
+        <v>340</v>
+      </c>
+      <c r="F335" t="s">
+        <v>342</v>
+      </c>
+      <c r="G335" t="s">
+        <v>354</v>
+      </c>
+      <c r="H335">
+        <v>600</v>
+      </c>
+      <c r="I335">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" t="s">
+        <v>9</v>
+      </c>
+      <c r="B336" t="s">
+        <v>12</v>
+      </c>
+      <c r="C336" s="2">
+        <v>45308.39583333334</v>
+      </c>
+      <c r="D336" t="s">
+        <v>42</v>
+      </c>
+      <c r="E336" t="s">
+        <v>340</v>
+      </c>
+      <c r="F336" t="s">
+        <v>343</v>
+      </c>
+      <c r="G336" t="s">
+        <v>355</v>
+      </c>
+      <c r="H336">
+        <v>600</v>
+      </c>
+      <c r="I336">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" t="s">
+        <v>9</v>
+      </c>
+      <c r="B337" t="s">
+        <v>8</v>
+      </c>
+      <c r="C337" s="2">
+        <v>45308.39583333334</v>
+      </c>
+      <c r="D337" t="s">
+        <v>296</v>
+      </c>
+      <c r="E337" t="s">
+        <v>340</v>
+      </c>
+      <c r="G337" t="s">
+        <v>8</v>
+      </c>
+      <c r="H337">
+        <v>600</v>
+      </c>
+      <c r="I337">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" t="s">
+        <v>9</v>
+      </c>
+      <c r="B338" t="s">
+        <v>13</v>
+      </c>
+      <c r="C338" s="2">
+        <v>45308.39583333334</v>
+      </c>
+      <c r="D338" t="s">
+        <v>240</v>
+      </c>
+      <c r="E338" t="s">
+        <v>340</v>
+      </c>
+      <c r="F338" t="s">
+        <v>351</v>
+      </c>
+      <c r="G338" t="s">
+        <v>356</v>
+      </c>
+      <c r="H338">
+        <v>600</v>
+      </c>
+      <c r="I338">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" t="s">
+        <v>9</v>
+      </c>
+      <c r="B339" t="s">
+        <v>14</v>
+      </c>
+      <c r="C339" s="2">
+        <v>45308.39583333334</v>
+      </c>
+      <c r="D339" t="s">
+        <v>111</v>
+      </c>
+      <c r="E339" t="s">
+        <v>340</v>
+      </c>
+      <c r="F339" t="s">
+        <v>348</v>
+      </c>
+      <c r="H339">
+        <v>600</v>
+      </c>
+      <c r="I339">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" t="s">
+        <v>9</v>
+      </c>
+      <c r="B340" t="s">
+        <v>15</v>
+      </c>
+      <c r="C340" s="2">
+        <v>45308.39583333334</v>
+      </c>
+      <c r="D340" t="s">
+        <v>297</v>
+      </c>
+      <c r="E340" t="s">
+        <v>340</v>
+      </c>
+      <c r="F340" t="s">
+        <v>349</v>
+      </c>
+      <c r="H340">
+        <v>600</v>
+      </c>
+      <c r="I340">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="A341" t="s">
+        <v>9</v>
+      </c>
+      <c r="B341" t="s">
+        <v>16</v>
+      </c>
+      <c r="C341" s="2">
+        <v>45344.00048611111</v>
+      </c>
+      <c r="D341" t="s">
+        <v>298</v>
+      </c>
+      <c r="G341" t="s">
+        <v>357</v>
+      </c>
+      <c r="H341">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" t="s">
+        <v>9</v>
+      </c>
+      <c r="B342" t="s">
+        <v>10</v>
+      </c>
+      <c r="C342" s="2">
+        <v>45344.42916666667</v>
+      </c>
+      <c r="D342" t="s">
+        <v>299</v>
+      </c>
+      <c r="E342" t="s">
+        <v>340</v>
+      </c>
+      <c r="F342" t="s">
+        <v>350</v>
+      </c>
+      <c r="G342" t="s">
+        <v>353</v>
+      </c>
+      <c r="H342">
+        <v>600</v>
+      </c>
+      <c r="I342">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
+      <c r="A343" t="s">
+        <v>9</v>
+      </c>
+      <c r="B343" t="s">
+        <v>11</v>
+      </c>
+      <c r="C343" s="2">
+        <v>45344.42916666667</v>
+      </c>
+      <c r="D343" t="s">
+        <v>300</v>
+      </c>
+      <c r="E343" t="s">
+        <v>340</v>
+      </c>
+      <c r="F343" t="s">
+        <v>342</v>
+      </c>
+      <c r="G343" t="s">
+        <v>354</v>
+      </c>
+      <c r="H343">
+        <v>600</v>
+      </c>
+      <c r="I343">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" t="s">
+        <v>9</v>
+      </c>
+      <c r="B344" t="s">
+        <v>12</v>
+      </c>
+      <c r="C344" s="2">
+        <v>45344.42916666667</v>
+      </c>
+      <c r="D344" t="s">
+        <v>301</v>
+      </c>
+      <c r="E344" t="s">
+        <v>340</v>
+      </c>
+      <c r="F344" t="s">
+        <v>343</v>
+      </c>
+      <c r="G344" t="s">
+        <v>355</v>
+      </c>
+      <c r="H344">
+        <v>600</v>
+      </c>
+      <c r="I344">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" t="s">
+        <v>9</v>
+      </c>
+      <c r="B345" t="s">
+        <v>8</v>
+      </c>
+      <c r="C345" s="2">
+        <v>45344.42916666667</v>
+      </c>
+      <c r="D345" t="s">
+        <v>302</v>
+      </c>
+      <c r="E345" t="s">
+        <v>340</v>
+      </c>
+      <c r="G345" t="s">
+        <v>8</v>
+      </c>
+      <c r="H345">
+        <v>600</v>
+      </c>
+      <c r="I345">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" t="s">
+        <v>9</v>
+      </c>
+      <c r="B346" t="s">
+        <v>13</v>
+      </c>
+      <c r="C346" s="2">
+        <v>45344.42916666667</v>
+      </c>
+      <c r="D346" t="s">
+        <v>303</v>
+      </c>
+      <c r="E346" t="s">
+        <v>340</v>
+      </c>
+      <c r="F346" t="s">
+        <v>351</v>
+      </c>
+      <c r="G346" t="s">
+        <v>356</v>
+      </c>
+      <c r="H346">
+        <v>600</v>
+      </c>
+      <c r="I346">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" t="s">
+        <v>9</v>
+      </c>
+      <c r="B347" t="s">
+        <v>14</v>
+      </c>
+      <c r="C347" s="2">
+        <v>45344.42916666667</v>
+      </c>
+      <c r="D347" t="s">
+        <v>304</v>
+      </c>
+      <c r="E347" t="s">
+        <v>340</v>
+      </c>
+      <c r="F347" t="s">
+        <v>348</v>
+      </c>
+      <c r="H347">
+        <v>600</v>
+      </c>
+      <c r="I347">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" t="s">
+        <v>9</v>
+      </c>
+      <c r="B348" t="s">
+        <v>15</v>
+      </c>
+      <c r="C348" s="2">
+        <v>45344.42916666667</v>
+      </c>
+      <c r="D348" t="s">
+        <v>305</v>
+      </c>
+      <c r="E348" t="s">
+        <v>340</v>
+      </c>
+      <c r="F348" t="s">
+        <v>349</v>
+      </c>
+      <c r="H348">
+        <v>600</v>
+      </c>
+      <c r="I348">
+        <v>7.71</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" t="s">
+        <v>9</v>
+      </c>
+      <c r="B349" t="s">
+        <v>16</v>
+      </c>
+      <c r="C349" s="2">
+        <v>45363.00048611111</v>
+      </c>
+      <c r="D349" t="s">
+        <v>306</v>
+      </c>
+      <c r="G349" t="s">
+        <v>357</v>
+      </c>
+      <c r="H349">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" t="s">
+        <v>9</v>
+      </c>
+      <c r="B350" t="s">
+        <v>10</v>
+      </c>
+      <c r="C350" s="2">
+        <v>45363.37916666667</v>
+      </c>
+      <c r="D350" t="s">
+        <v>307</v>
+      </c>
+      <c r="E350" t="s">
+        <v>340</v>
+      </c>
+      <c r="F350" t="s">
+        <v>350</v>
+      </c>
+      <c r="G350" t="s">
+        <v>353</v>
+      </c>
+      <c r="H350">
+        <v>600</v>
+      </c>
+      <c r="I350">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" t="s">
+        <v>9</v>
+      </c>
+      <c r="B351" t="s">
+        <v>11</v>
+      </c>
+      <c r="C351" s="2">
+        <v>45363.37916666667</v>
+      </c>
+      <c r="D351" t="s">
+        <v>308</v>
+      </c>
+      <c r="E351" t="s">
+        <v>340</v>
+      </c>
+      <c r="F351" t="s">
+        <v>342</v>
+      </c>
+      <c r="G351" t="s">
+        <v>354</v>
+      </c>
+      <c r="H351">
+        <v>600</v>
+      </c>
+      <c r="I351">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" t="s">
+        <v>9</v>
+      </c>
+      <c r="B352" t="s">
+        <v>12</v>
+      </c>
+      <c r="C352" s="2">
+        <v>45363.37916666667</v>
+      </c>
+      <c r="D352" t="s">
+        <v>309</v>
+      </c>
+      <c r="E352" t="s">
+        <v>340</v>
+      </c>
+      <c r="F352" t="s">
+        <v>343</v>
+      </c>
+      <c r="G352" t="s">
+        <v>355</v>
+      </c>
+      <c r="H352">
+        <v>600</v>
+      </c>
+      <c r="I352">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" t="s">
+        <v>9</v>
+      </c>
+      <c r="B353" t="s">
+        <v>8</v>
+      </c>
+      <c r="C353" s="2">
+        <v>45363.37916666667</v>
+      </c>
+      <c r="D353" t="s">
+        <v>187</v>
+      </c>
+      <c r="E353" t="s">
+        <v>340</v>
+      </c>
+      <c r="G353" t="s">
+        <v>8</v>
+      </c>
+      <c r="H353">
+        <v>600</v>
+      </c>
+      <c r="I353">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" t="s">
+        <v>9</v>
+      </c>
+      <c r="B354" t="s">
+        <v>13</v>
+      </c>
+      <c r="C354" s="2">
+        <v>45363.37916666667</v>
+      </c>
+      <c r="D354" t="s">
+        <v>310</v>
+      </c>
+      <c r="E354" t="s">
+        <v>340</v>
+      </c>
+      <c r="F354" t="s">
+        <v>351</v>
+      </c>
+      <c r="G354" t="s">
+        <v>356</v>
+      </c>
+      <c r="H354">
+        <v>600</v>
+      </c>
+      <c r="I354">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" t="s">
+        <v>9</v>
+      </c>
+      <c r="B355" t="s">
+        <v>14</v>
+      </c>
+      <c r="C355" s="2">
+        <v>45363.37916666667</v>
+      </c>
+      <c r="D355" t="s">
+        <v>311</v>
+      </c>
+      <c r="E355" t="s">
+        <v>340</v>
+      </c>
+      <c r="F355" t="s">
+        <v>348</v>
+      </c>
+      <c r="H355">
+        <v>600</v>
+      </c>
+      <c r="I355">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" t="s">
+        <v>9</v>
+      </c>
+      <c r="B356" t="s">
+        <v>15</v>
+      </c>
+      <c r="C356" s="2">
+        <v>45363.37916666667</v>
+      </c>
+      <c r="D356" t="s">
+        <v>312</v>
+      </c>
+      <c r="E356" t="s">
+        <v>340</v>
+      </c>
+      <c r="F356" t="s">
+        <v>349</v>
+      </c>
+      <c r="H356">
+        <v>600</v>
+      </c>
+      <c r="I356">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357" t="s">
+        <v>9</v>
+      </c>
+      <c r="B357" t="s">
+        <v>16</v>
+      </c>
+      <c r="C357" s="2">
+        <v>45398.00048611111</v>
+      </c>
+      <c r="D357" t="s">
+        <v>313</v>
+      </c>
+      <c r="G357" t="s">
+        <v>357</v>
+      </c>
+      <c r="H357">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358" t="s">
+        <v>9</v>
+      </c>
+      <c r="B358" t="s">
+        <v>10</v>
+      </c>
+      <c r="C358" s="2">
+        <v>45398.41458333333</v>
+      </c>
+      <c r="D358" t="s">
+        <v>314</v>
+      </c>
+      <c r="E358" t="s">
+        <v>340</v>
+      </c>
+      <c r="F358" t="s">
+        <v>350</v>
+      </c>
+      <c r="G358" t="s">
+        <v>353</v>
+      </c>
+      <c r="H358">
+        <v>600</v>
+      </c>
+      <c r="I358">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" t="s">
+        <v>9</v>
+      </c>
+      <c r="B359" t="s">
+        <v>11</v>
+      </c>
+      <c r="C359" s="2">
+        <v>45398.41458333333</v>
+      </c>
+      <c r="D359" t="s">
+        <v>133</v>
+      </c>
+      <c r="E359" t="s">
+        <v>340</v>
+      </c>
+      <c r="F359" t="s">
+        <v>342</v>
+      </c>
+      <c r="G359" t="s">
+        <v>354</v>
+      </c>
+      <c r="H359">
+        <v>600</v>
+      </c>
+      <c r="I359">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="A360" t="s">
+        <v>9</v>
+      </c>
+      <c r="B360" t="s">
+        <v>12</v>
+      </c>
+      <c r="C360" s="2">
+        <v>45398.41458333333</v>
+      </c>
+      <c r="D360" t="s">
+        <v>315</v>
+      </c>
+      <c r="E360" t="s">
+        <v>340</v>
+      </c>
+      <c r="F360" t="s">
+        <v>343</v>
+      </c>
+      <c r="G360" t="s">
+        <v>355</v>
+      </c>
+      <c r="H360">
+        <v>600</v>
+      </c>
+      <c r="I360">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="A361" t="s">
+        <v>9</v>
+      </c>
+      <c r="B361" t="s">
+        <v>8</v>
+      </c>
+      <c r="C361" s="2">
+        <v>45398.41458333333</v>
+      </c>
+      <c r="D361" t="s">
+        <v>316</v>
+      </c>
+      <c r="E361" t="s">
+        <v>340</v>
+      </c>
+      <c r="G361" t="s">
+        <v>8</v>
+      </c>
+      <c r="H361">
+        <v>600</v>
+      </c>
+      <c r="I361">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9">
+      <c r="A362" t="s">
+        <v>9</v>
+      </c>
+      <c r="B362" t="s">
+        <v>13</v>
+      </c>
+      <c r="C362" s="2">
+        <v>45398.41458333333</v>
+      </c>
+      <c r="D362" t="s">
+        <v>317</v>
+      </c>
+      <c r="E362" t="s">
+        <v>340</v>
+      </c>
+      <c r="F362" t="s">
+        <v>351</v>
+      </c>
+      <c r="G362" t="s">
+        <v>356</v>
+      </c>
+      <c r="H362">
+        <v>600</v>
+      </c>
+      <c r="I362">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9">
+      <c r="A363" t="s">
+        <v>9</v>
+      </c>
+      <c r="B363" t="s">
+        <v>14</v>
+      </c>
+      <c r="C363" s="2">
+        <v>45398.41458333333</v>
+      </c>
+      <c r="D363" t="s">
+        <v>318</v>
+      </c>
+      <c r="E363" t="s">
+        <v>340</v>
+      </c>
+      <c r="F363" t="s">
+        <v>348</v>
+      </c>
+      <c r="H363">
+        <v>600</v>
+      </c>
+      <c r="I363">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9">
+      <c r="A364" t="s">
+        <v>9</v>
+      </c>
+      <c r="B364" t="s">
+        <v>15</v>
+      </c>
+      <c r="C364" s="2">
+        <v>45398.41458333333</v>
+      </c>
+      <c r="D364" t="s">
+        <v>319</v>
+      </c>
+      <c r="E364" t="s">
+        <v>340</v>
+      </c>
+      <c r="F364" t="s">
+        <v>349</v>
+      </c>
+      <c r="H364">
+        <v>600</v>
+      </c>
+      <c r="I364">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9">
+      <c r="A365" t="s">
+        <v>9</v>
+      </c>
+      <c r="B365" t="s">
+        <v>16</v>
+      </c>
+      <c r="C365" s="2">
+        <v>45511.00048611111</v>
+      </c>
+      <c r="D365" t="s">
+        <v>101</v>
+      </c>
+      <c r="G365" t="s">
+        <v>357</v>
+      </c>
+      <c r="H365">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9">
+      <c r="A366" t="s">
+        <v>9</v>
+      </c>
+      <c r="B366" t="s">
+        <v>10</v>
+      </c>
+      <c r="C366" s="2">
+        <v>45511.38611111111</v>
+      </c>
+      <c r="D366" t="s">
+        <v>320</v>
+      </c>
+      <c r="E366" t="s">
+        <v>340</v>
+      </c>
+      <c r="F366" t="s">
+        <v>352</v>
+      </c>
+      <c r="G366" t="s">
+        <v>353</v>
+      </c>
+      <c r="H366">
+        <v>600</v>
+      </c>
+      <c r="I366">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9">
+      <c r="A367" t="s">
+        <v>9</v>
+      </c>
+      <c r="B367" t="s">
+        <v>11</v>
+      </c>
+      <c r="C367" s="2">
+        <v>45511.38611111111</v>
+      </c>
+      <c r="D367" t="s">
+        <v>24</v>
+      </c>
+      <c r="E367" t="s">
+        <v>340</v>
+      </c>
+      <c r="F367" t="s">
+        <v>342</v>
+      </c>
+      <c r="G367" t="s">
+        <v>354</v>
+      </c>
+      <c r="H367">
+        <v>600</v>
+      </c>
+      <c r="I367">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9">
+      <c r="A368" t="s">
+        <v>9</v>
+      </c>
+      <c r="B368" t="s">
+        <v>12</v>
+      </c>
+      <c r="C368" s="2">
+        <v>45511.38611111111</v>
+      </c>
+      <c r="D368" t="s">
+        <v>171</v>
+      </c>
+      <c r="E368" t="s">
+        <v>340</v>
+      </c>
+      <c r="F368" t="s">
+        <v>343</v>
+      </c>
+      <c r="G368" t="s">
+        <v>355</v>
+      </c>
+      <c r="H368">
+        <v>600</v>
+      </c>
+      <c r="I368">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9">
+      <c r="A369" t="s">
+        <v>9</v>
+      </c>
+      <c r="B369" t="s">
+        <v>8</v>
+      </c>
+      <c r="C369" s="2">
+        <v>45511.38611111111</v>
+      </c>
+      <c r="D369" t="s">
+        <v>321</v>
+      </c>
+      <c r="E369" t="s">
+        <v>340</v>
+      </c>
+      <c r="G369" t="s">
+        <v>8</v>
+      </c>
+      <c r="H369">
+        <v>600</v>
+      </c>
+      <c r="I369">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9">
+      <c r="A370" t="s">
+        <v>9</v>
+      </c>
+      <c r="B370" t="s">
+        <v>13</v>
+      </c>
+      <c r="C370" s="2">
+        <v>45511.38611111111</v>
+      </c>
+      <c r="D370" t="s">
+        <v>267</v>
+      </c>
+      <c r="E370" t="s">
+        <v>340</v>
+      </c>
+      <c r="F370" t="s">
+        <v>351</v>
+      </c>
+      <c r="G370" t="s">
+        <v>356</v>
+      </c>
+      <c r="H370">
+        <v>600</v>
+      </c>
+      <c r="I370">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9">
+      <c r="A371" t="s">
+        <v>9</v>
+      </c>
+      <c r="B371" t="s">
+        <v>14</v>
+      </c>
+      <c r="C371" s="2">
+        <v>45511.38611111111</v>
+      </c>
+      <c r="D371" t="s">
+        <v>322</v>
+      </c>
+      <c r="E371" t="s">
+        <v>340</v>
+      </c>
+      <c r="F371" t="s">
+        <v>348</v>
+      </c>
+      <c r="H371">
+        <v>600</v>
+      </c>
+      <c r="I371">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9">
+      <c r="A372" t="s">
+        <v>9</v>
+      </c>
+      <c r="B372" t="s">
+        <v>15</v>
+      </c>
+      <c r="C372" s="2">
+        <v>45511.38611111111</v>
+      </c>
+      <c r="D372" t="s">
+        <v>323</v>
+      </c>
+      <c r="E372" t="s">
+        <v>340</v>
+      </c>
+      <c r="F372" t="s">
+        <v>349</v>
+      </c>
+      <c r="H372">
+        <v>600</v>
+      </c>
+      <c r="I372">
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9">
+      <c r="A373" t="s">
+        <v>9</v>
+      </c>
+      <c r="B373" t="s">
+        <v>16</v>
+      </c>
+      <c r="C373" s="2">
+        <v>45558.00048611111</v>
+      </c>
+      <c r="D373" t="s">
+        <v>101</v>
+      </c>
+      <c r="G373" t="s">
+        <v>357</v>
+      </c>
+      <c r="H373">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9">
+      <c r="A374" t="s">
+        <v>9</v>
+      </c>
+      <c r="B374" t="s">
+        <v>10</v>
+      </c>
+      <c r="C374" s="2">
+        <v>45558.40277777778</v>
+      </c>
+      <c r="D374" t="s">
+        <v>34</v>
+      </c>
+      <c r="E374" t="s">
+        <v>340</v>
+      </c>
+      <c r="F374" t="s">
+        <v>350</v>
+      </c>
+      <c r="G374" t="s">
+        <v>353</v>
+      </c>
+      <c r="H374">
+        <v>600</v>
+      </c>
+      <c r="I374">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9">
+      <c r="A375" t="s">
+        <v>9</v>
+      </c>
+      <c r="B375" t="s">
+        <v>11</v>
+      </c>
+      <c r="C375" s="2">
+        <v>45558.40277777778</v>
+      </c>
+      <c r="D375" t="s">
+        <v>24</v>
+      </c>
+      <c r="E375" t="s">
+        <v>340</v>
+      </c>
+      <c r="F375" t="s">
+        <v>342</v>
+      </c>
+      <c r="G375" t="s">
+        <v>354</v>
+      </c>
+      <c r="H375">
+        <v>600</v>
+      </c>
+      <c r="I375">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9">
+      <c r="A376" t="s">
+        <v>9</v>
+      </c>
+      <c r="B376" t="s">
+        <v>12</v>
+      </c>
+      <c r="C376" s="2">
+        <v>45558.40277777778</v>
+      </c>
+      <c r="D376" t="s">
+        <v>324</v>
+      </c>
+      <c r="E376" t="s">
+        <v>340</v>
+      </c>
+      <c r="F376" t="s">
+        <v>343</v>
+      </c>
+      <c r="G376" t="s">
+        <v>355</v>
+      </c>
+      <c r="H376">
+        <v>600</v>
+      </c>
+      <c r="I376">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9">
+      <c r="A377" t="s">
+        <v>9</v>
+      </c>
+      <c r="B377" t="s">
+        <v>8</v>
+      </c>
+      <c r="C377" s="2">
+        <v>45558.40277777778</v>
+      </c>
+      <c r="D377" t="s">
+        <v>325</v>
+      </c>
+      <c r="E377" t="s">
+        <v>340</v>
+      </c>
+      <c r="G377" t="s">
+        <v>8</v>
+      </c>
+      <c r="H377">
+        <v>600</v>
+      </c>
+      <c r="I377">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9">
+      <c r="A378" t="s">
+        <v>9</v>
+      </c>
+      <c r="B378" t="s">
+        <v>13</v>
+      </c>
+      <c r="C378" s="2">
+        <v>45558.40277777778</v>
+      </c>
+      <c r="D378" t="s">
+        <v>326</v>
+      </c>
+      <c r="E378" t="s">
+        <v>340</v>
+      </c>
+      <c r="F378" t="s">
+        <v>351</v>
+      </c>
+      <c r="G378" t="s">
+        <v>356</v>
+      </c>
+      <c r="H378">
+        <v>600</v>
+      </c>
+      <c r="I378">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9">
+      <c r="A379" t="s">
+        <v>9</v>
+      </c>
+      <c r="B379" t="s">
+        <v>14</v>
+      </c>
+      <c r="C379" s="2">
+        <v>45558.40277777778</v>
+      </c>
+      <c r="D379" t="s">
+        <v>327</v>
+      </c>
+      <c r="E379" t="s">
+        <v>340</v>
+      </c>
+      <c r="F379" t="s">
+        <v>348</v>
+      </c>
+      <c r="H379">
+        <v>600</v>
+      </c>
+      <c r="I379">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9">
+      <c r="A380" t="s">
+        <v>9</v>
+      </c>
+      <c r="B380" t="s">
+        <v>15</v>
+      </c>
+      <c r="C380" s="2">
+        <v>45558.40277777778</v>
+      </c>
+      <c r="D380" t="s">
+        <v>328</v>
+      </c>
+      <c r="E380" t="s">
+        <v>340</v>
+      </c>
+      <c r="F380" t="s">
+        <v>349</v>
+      </c>
+      <c r="H380">
+        <v>600</v>
+      </c>
+      <c r="I380">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9">
+      <c r="A381" t="s">
+        <v>9</v>
+      </c>
+      <c r="B381" t="s">
+        <v>16</v>
+      </c>
+      <c r="C381" s="2">
+        <v>45587.00048611111</v>
+      </c>
+      <c r="D381" t="s">
+        <v>205</v>
+      </c>
+      <c r="G381" t="s">
+        <v>357</v>
+      </c>
+      <c r="H381">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9">
+      <c r="A382" t="s">
+        <v>9</v>
+      </c>
+      <c r="B382" t="s">
+        <v>10</v>
+      </c>
+      <c r="C382" s="2">
+        <v>45587.40277777778</v>
+      </c>
+      <c r="D382" t="s">
+        <v>329</v>
+      </c>
+      <c r="E382" t="s">
+        <v>340</v>
+      </c>
+      <c r="F382" t="s">
+        <v>350</v>
+      </c>
+      <c r="G382" t="s">
+        <v>353</v>
+      </c>
+      <c r="H382">
+        <v>600</v>
+      </c>
+      <c r="I382">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9">
+      <c r="A383" t="s">
+        <v>9</v>
+      </c>
+      <c r="B383" t="s">
+        <v>11</v>
+      </c>
+      <c r="C383" s="2">
+        <v>45587.40277777778</v>
+      </c>
+      <c r="D383" t="s">
+        <v>24</v>
+      </c>
+      <c r="E383" t="s">
+        <v>340</v>
+      </c>
+      <c r="F383" t="s">
+        <v>342</v>
+      </c>
+      <c r="G383" t="s">
+        <v>354</v>
+      </c>
+      <c r="H383">
+        <v>600</v>
+      </c>
+      <c r="I383">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9">
+      <c r="A384" t="s">
+        <v>9</v>
+      </c>
+      <c r="B384" t="s">
+        <v>12</v>
+      </c>
+      <c r="C384" s="2">
+        <v>45587.40277777778</v>
+      </c>
+      <c r="D384" t="s">
+        <v>330</v>
+      </c>
+      <c r="E384" t="s">
+        <v>340</v>
+      </c>
+      <c r="F384" t="s">
+        <v>343</v>
+      </c>
+      <c r="G384" t="s">
+        <v>355</v>
+      </c>
+      <c r="H384">
+        <v>600</v>
+      </c>
+      <c r="I384">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9">
+      <c r="A385" t="s">
+        <v>9</v>
+      </c>
+      <c r="B385" t="s">
+        <v>8</v>
+      </c>
+      <c r="C385" s="2">
+        <v>45587.40277777778</v>
+      </c>
+      <c r="D385" t="s">
+        <v>331</v>
+      </c>
+      <c r="E385" t="s">
+        <v>340</v>
+      </c>
+      <c r="G385" t="s">
+        <v>8</v>
+      </c>
+      <c r="H385">
+        <v>600</v>
+      </c>
+      <c r="I385">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9">
+      <c r="A386" t="s">
+        <v>9</v>
+      </c>
+      <c r="B386" t="s">
+        <v>13</v>
+      </c>
+      <c r="C386" s="2">
+        <v>45587.40277777778</v>
+      </c>
+      <c r="D386" t="s">
+        <v>332</v>
+      </c>
+      <c r="E386" t="s">
+        <v>340</v>
+      </c>
+      <c r="F386" t="s">
+        <v>351</v>
+      </c>
+      <c r="G386" t="s">
+        <v>356</v>
+      </c>
+      <c r="H386">
+        <v>600</v>
+      </c>
+      <c r="I386">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9">
+      <c r="A387" t="s">
+        <v>9</v>
+      </c>
+      <c r="B387" t="s">
+        <v>14</v>
+      </c>
+      <c r="C387" s="2">
+        <v>45587.40277777778</v>
+      </c>
+      <c r="D387" t="s">
+        <v>333</v>
+      </c>
+      <c r="E387" t="s">
+        <v>340</v>
+      </c>
+      <c r="F387" t="s">
+        <v>348</v>
+      </c>
+      <c r="H387">
+        <v>600</v>
+      </c>
+      <c r="I387">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9">
+      <c r="A388" t="s">
+        <v>9</v>
+      </c>
+      <c r="B388" t="s">
+        <v>15</v>
+      </c>
+      <c r="C388" s="2">
+        <v>45587.40277777778</v>
+      </c>
+      <c r="D388" t="s">
+        <v>334</v>
+      </c>
+      <c r="E388" t="s">
+        <v>340</v>
+      </c>
+      <c r="F388" t="s">
+        <v>349</v>
+      </c>
+      <c r="H388">
+        <v>600</v>
+      </c>
+      <c r="I388">
+        <v>8.01</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9">
+      <c r="A389" t="s">
+        <v>9</v>
+      </c>
+      <c r="B389" t="s">
+        <v>16</v>
+      </c>
+      <c r="C389" s="2">
+        <v>45636.00048611111</v>
+      </c>
+      <c r="D389" t="s">
+        <v>335</v>
+      </c>
+      <c r="G389" t="s">
+        <v>357</v>
+      </c>
+      <c r="H389">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9">
+      <c r="A390" t="s">
+        <v>9</v>
+      </c>
+      <c r="B390" t="s">
+        <v>10</v>
+      </c>
+      <c r="C390" s="2">
+        <v>45636.39027777778</v>
+      </c>
+      <c r="D390" t="s">
+        <v>336</v>
+      </c>
+      <c r="E390" t="s">
+        <v>340</v>
+      </c>
+      <c r="F390" t="s">
+        <v>350</v>
+      </c>
+      <c r="G390" t="s">
+        <v>353</v>
+      </c>
+      <c r="H390">
+        <v>600</v>
+      </c>
+      <c r="I390">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9">
+      <c r="A391" t="s">
+        <v>9</v>
+      </c>
+      <c r="B391" t="s">
+        <v>11</v>
+      </c>
+      <c r="C391" s="2">
+        <v>45636.39027777778</v>
+      </c>
+      <c r="D391" t="s">
+        <v>337</v>
+      </c>
+      <c r="E391" t="s">
+        <v>340</v>
+      </c>
+      <c r="F391" t="s">
+        <v>342</v>
+      </c>
+      <c r="G391" t="s">
+        <v>354</v>
+      </c>
+      <c r="H391">
+        <v>600</v>
+      </c>
+      <c r="I391">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9">
+      <c r="A392" t="s">
+        <v>9</v>
+      </c>
+      <c r="B392" t="s">
+        <v>12</v>
+      </c>
+      <c r="C392" s="2">
+        <v>45636.39027777778</v>
+      </c>
+      <c r="D392" t="s">
+        <v>330</v>
+      </c>
+      <c r="E392" t="s">
+        <v>340</v>
+      </c>
+      <c r="F392" t="s">
+        <v>343</v>
+      </c>
+      <c r="G392" t="s">
+        <v>355</v>
+      </c>
+      <c r="H392">
+        <v>600</v>
+      </c>
+      <c r="I392">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9">
+      <c r="A393" t="s">
+        <v>9</v>
+      </c>
+      <c r="B393" t="s">
+        <v>8</v>
+      </c>
+      <c r="C393" s="2">
+        <v>45636.39027777778</v>
+      </c>
+      <c r="D393" t="s">
+        <v>338</v>
+      </c>
+      <c r="E393" t="s">
+        <v>340</v>
+      </c>
+      <c r="G393" t="s">
+        <v>8</v>
+      </c>
+      <c r="H393">
+        <v>600</v>
+      </c>
+      <c r="I393">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9">
+      <c r="A394" t="s">
+        <v>9</v>
+      </c>
+      <c r="B394" t="s">
+        <v>13</v>
+      </c>
+      <c r="C394" s="2">
+        <v>45636.39027777778</v>
+      </c>
+      <c r="D394" t="s">
+        <v>240</v>
+      </c>
+      <c r="E394" t="s">
+        <v>340</v>
+      </c>
+      <c r="F394" t="s">
+        <v>351</v>
+      </c>
+      <c r="G394" t="s">
+        <v>356</v>
+      </c>
+      <c r="H394">
+        <v>600</v>
+      </c>
+      <c r="I394">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9">
+      <c r="A395" t="s">
+        <v>9</v>
+      </c>
+      <c r="B395" t="s">
+        <v>14</v>
+      </c>
+      <c r="C395" s="2">
+        <v>45636.39027777778</v>
+      </c>
+      <c r="D395" t="s">
+        <v>339</v>
+      </c>
+      <c r="E395" t="s">
+        <v>340</v>
+      </c>
+      <c r="F395" t="s">
+        <v>348</v>
+      </c>
+      <c r="H395">
+        <v>600</v>
+      </c>
+      <c r="I395">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9">
+      <c r="A396" t="s">
+        <v>9</v>
+      </c>
+      <c r="B396" t="s">
+        <v>15</v>
+      </c>
+      <c r="C396" s="2">
+        <v>45636.39027777778</v>
+      </c>
+      <c r="D396" t="s">
+        <v>68</v>
+      </c>
+      <c r="E396" t="s">
+        <v>340</v>
+      </c>
+      <c r="F396" t="s">
+        <v>349</v>
+      </c>
+      <c r="H396">
+        <v>600</v>
+      </c>
+      <c r="I396">
+        <v>7.95</v>
       </c>
     </row>
   </sheetData>

--- a/data/Lakes/LakeWaipu_c2d77bb10c.xlsx
+++ b/data/Lakes/LakeWaipu_c2d77bb10c.xlsx
@@ -64,7 +64,7 @@
     <t>Total Phosphorus</t>
   </si>
   <si>
-    <t>BIOVOL</t>
+    <t>Cyanobacteria Biovolume</t>
   </si>
   <si>
     <t>1.1800</t>
